--- a/src/test/resources/testdata/AddEmpData.xlsx
+++ b/src/test/resources/testdata/AddEmpData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thara\IdeaProjects\CucumberFramework_HRMSPortal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6BE48D-10CE-40FA-B03C-C2A4825697CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78DCE3-3EC2-4D51-B66B-D3E5743CD2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15285" xr2:uid="{F1DBEC02-27F1-4D1B-9102-4360B321DC70}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{F1DBEC02-27F1-4D1B-9102-4360B321DC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,16 @@
     <t>dummy</t>
   </si>
   <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>middleName</t>
-  </si>
-  <si>
-    <t>lastName</t>
   </si>
 </sst>
 </file>
@@ -397,26 +397,26 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D11:D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/AddEmpData.xlsx
+++ b/src/test/resources/testdata/AddEmpData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thara\IdeaProjects\CucumberFramework_HRMSPortal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B78DCE3-3EC2-4D51-B66B-D3E5743CD2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DAE7DF-98AA-4790-A33B-C9E6D52BFE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{F1DBEC02-27F1-4D1B-9102-4360B321DC70}"/>
+    <workbookView xWindow="3540" yWindow="2076" windowWidth="17280" windowHeight="8880" xr2:uid="{F1DBEC02-27F1-4D1B-9102-4360B321DC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="incomplete" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>MS</t>
   </si>
@@ -397,7 +398,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,4 +431,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B610A69-16EA-4E1D-B987-1B732247FDE7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/AddEmpData.xlsx
+++ b/src/test/resources/testdata/AddEmpData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thara\IdeaProjects\CucumberFramework_HRMSPortal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DAE7DF-98AA-4790-A33B-C9E6D52BFE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E49DFD-B0F9-47FB-8358-D2C1B004AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2076" windowWidth="17280" windowHeight="8880" xr2:uid="{F1DBEC02-27F1-4D1B-9102-4360B321DC70}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11235" xr2:uid="{F1DBEC02-27F1-4D1B-9102-4360B321DC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +139,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -245,7 +245,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,15 +398,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="3" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -441,9 +441,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
